--- a/ig/sd-phase-de-lessai-creation-conceptmap/ValueSet-eclaire-study-phase-vs.xlsx
+++ b/ig/sd-phase-de-lessai-creation-conceptmap/ValueSet-eclaire-study-phase-vs.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-30T08:25:30+00:00</t>
+    <t>2023-08-30T14:09:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/sd-phase-de-lessai-creation-conceptmap/ValueSet-eclaire-study-phase-vs.xlsx
+++ b/ig/sd-phase-de-lessai-creation-conceptmap/ValueSet-eclaire-study-phase-vs.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-30T14:09:22+00:00</t>
+    <t>2023-08-31T07:32:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/sd-phase-de-lessai-creation-conceptmap/ValueSet-eclaire-study-phase-vs.xlsx
+++ b/ig/sd-phase-de-lessai-creation-conceptmap/ValueSet-eclaire-study-phase-vs.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-31T07:32:14+00:00</t>
+    <t>2023-08-31T13:15:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/sd-phase-de-lessai-creation-conceptmap/ValueSet-eclaire-study-phase-vs.xlsx
+++ b/ig/sd-phase-de-lessai-creation-conceptmap/ValueSet-eclaire-study-phase-vs.xlsx
@@ -43,7 +43,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>Value Set type de phase Eclaire de l'essai</t>
+    <t>Value Set type de phase de l'essai clinique</t>
   </si>
   <si>
     <t>Status</t>
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-31T13:15:07+00:00</t>
+    <t>2023-08-31T14:29:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
